--- a/Data/Dimensions.xlsx
+++ b/Data/Dimensions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Pablo\Educacion\Aprendizaje Continuo\Codigos utiles\R\Proyectos R\Critical-Minerals-EV\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5301E2DA-8B9C-4C15-B52B-7D31F65C8525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56DC9FD-4DE7-4107-BEA8-2415852C9B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{10A00EE8-D322-4E40-8380-99722AAEAAD4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{10A00EE8-D322-4E40-8380-99722AAEAAD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Powertrain" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="220">
   <si>
     <t>Powertrain</t>
   </si>
@@ -673,6 +673,33 @@
   </si>
   <si>
     <t>Heavy truck</t>
+  </si>
+  <si>
+    <t>Stationary Power Storage</t>
+  </si>
+  <si>
+    <t>Recycling</t>
+  </si>
+  <si>
+    <t>Other Sectors</t>
+  </si>
+  <si>
+    <t>Portable Electronics</t>
+  </si>
+  <si>
+    <t>Non-battery sectors</t>
+  </si>
+  <si>
+    <t>Ceramics</t>
+  </si>
+  <si>
+    <t>Stainless Steel</t>
+  </si>
+  <si>
+    <t>SPS</t>
+  </si>
+  <si>
+    <t>Additional LIB</t>
   </si>
 </sst>
 </file>
@@ -1050,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02212BA-0955-4963-A2E5-C90F56689735}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A11" sqref="A11:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,17 +1095,47 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894C5C83-8BD9-461C-BD6E-A3110FA4B413}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,32 +1164,52 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -1282,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C43E680-4E4C-42CA-975E-BB87EFBB010C}">
   <dimension ref="A1:A188"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
